--- a/AKINATOR UM (Responses).xlsx
+++ b/AKINATOR UM (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UM\Segundo Semestre 2018\Sistemas Distribuidos\Akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E9D25B-AE00-464B-8CE0-ACB528F86C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDDE4E-D036-41C0-B5AE-04786CC514C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="244">
   <si>
     <t>Nombre completo</t>
   </si>
@@ -328,9 +328,6 @@
     <t xml:space="preserve">Pocitos </t>
   </si>
   <si>
-    <t>Analia Conde</t>
-  </si>
-  <si>
     <t>Juan Ignacio Mendez</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Paysandú</t>
   </si>
   <si>
-    <t xml:space="preserve">Paysandú- colegio y liceo nuestra señora del rosario </t>
-  </si>
-  <si>
     <t>Valentina Kunze</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t xml:space="preserve">Martín Tanco </t>
   </si>
   <si>
-    <t>Seminario</t>
-  </si>
-  <si>
     <t>Juan Pablo Zufriategui</t>
   </si>
   <si>
@@ -502,9 +493,6 @@
     <t>Ángeles de Castro</t>
   </si>
   <si>
-    <t>Adrian Santilli</t>
-  </si>
-  <si>
     <t>Emanuel Berón</t>
   </si>
   <si>
@@ -526,9 +514,6 @@
     <t>Juan Mezzera</t>
   </si>
   <si>
-    <t>Liceo Alemán</t>
-  </si>
-  <si>
     <t>Santiago Terreno</t>
   </si>
   <si>
@@ -586,9 +571,6 @@
     <t>Martín Brian</t>
   </si>
   <si>
-    <t xml:space="preserve">Seminario </t>
-  </si>
-  <si>
     <t>Micaela Serrón</t>
   </si>
   <si>
@@ -761,6 +743,15 @@
   </si>
   <si>
     <t>Scuola Italiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colegio y liceo nuestra señora del rosario </t>
+  </si>
+  <si>
+    <t>Colegio Alemán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colegio Seminario </t>
   </si>
 </sst>
 </file>
@@ -1137,9 +1128,9 @@
   </sheetPr>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:Z71"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1311,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
@@ -1336,7 +1327,7 @@
         <v>37</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>48</v>
@@ -1368,7 +1359,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
@@ -1489,7 +1480,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>44</v>
@@ -1518,7 +1509,7 @@
         <v>2016</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>66</v>
@@ -1585,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>37</v>
@@ -1649,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>37</v>
@@ -1663,7 +1654,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B9" s="2">
         <v>1997</v>
@@ -1777,7 +1768,7 @@
         <v>82</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>37</v>
@@ -1905,7 +1896,7 @@
         <v>61</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>37</v>
@@ -1969,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>37</v>
@@ -2001,7 +1992,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>75</v>
@@ -2030,7 +2021,7 @@
         <v>2017</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>97</v>
@@ -2065,7 +2056,7 @@
         <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
@@ -2126,10 +2117,10 @@
         <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>31</v>
@@ -2196,7 +2187,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
@@ -2222,10 +2213,10 @@
         <v>2014</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>37</v>
@@ -2286,7 +2277,7 @@
         <v>2017</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>77</v>
@@ -2350,7 +2341,7 @@
         <v>2017</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>77</v>
@@ -2367,7 +2358,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
         <v>1996</v>
@@ -2385,7 +2376,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>44</v>
@@ -2401,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>37</v>
@@ -2410,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>37</v>
@@ -2427,7 +2418,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
         <v>1998</v>
@@ -2442,13 +2433,13 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>45</v>
@@ -2477,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>37</v>
@@ -2491,7 +2482,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2">
         <v>1998</v>
@@ -2506,13 +2497,13 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>32</v>
@@ -2555,7 +2546,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2">
         <v>1998</v>
@@ -2570,10 +2561,10 @@
         <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>44</v>
@@ -2582,7 +2573,7 @@
         <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2" t="s">
@@ -2605,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>37</v>
@@ -2619,7 +2610,7 @@
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="2">
         <v>1997</v>
@@ -2634,10 +2625,10 @@
         <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>31</v>
@@ -2647,7 +2638,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>34</v>
@@ -2666,10 +2657,10 @@
         <v>2017</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>37</v>
@@ -2683,7 +2674,7 @@
     </row>
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2">
         <v>1999</v>
@@ -2698,10 +2689,10 @@
         <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>44</v>
@@ -2733,7 +2724,7 @@
         <v>36</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>37</v>
@@ -2747,7 +2738,7 @@
     </row>
     <row r="26" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2">
         <v>1995</v>
@@ -2762,19 +2753,19 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
@@ -2794,10 +2785,10 @@
         <v>2014</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X26" s="2" t="s">
         <v>37</v>
@@ -2811,7 +2802,7 @@
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2">
         <v>1998</v>
@@ -2861,7 +2852,7 @@
         <v>85</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>37</v>
@@ -2875,7 +2866,7 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2">
         <v>1974</v>
@@ -2893,7 +2884,7 @@
         <v>42</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>44</v>
@@ -2903,25 +2894,25 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2935,7 +2926,7 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2">
         <v>1995</v>
@@ -2950,13 +2941,13 @@
         <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>32</v>
@@ -2999,7 +2990,7 @@
     </row>
     <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2">
         <v>1997</v>
@@ -3046,10 +3037,10 @@
         <v>2016</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X30" s="2" t="s">
         <v>37</v>
@@ -3063,7 +3054,7 @@
     </row>
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2">
         <v>1999</v>
@@ -3078,7 +3069,7 @@
         <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -3091,7 +3082,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>34</v>
@@ -3110,10 +3101,10 @@
         <v>2018</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>37</v>
@@ -3127,7 +3118,7 @@
     </row>
     <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="2">
         <v>1999</v>
@@ -3177,7 +3168,7 @@
         <v>85</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>37</v>
@@ -3191,7 +3182,7 @@
     </row>
     <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" s="2">
         <v>1998</v>
@@ -3206,10 +3197,10 @@
         <v>52</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>44</v>
@@ -3219,7 +3210,7 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>34</v>
@@ -3238,10 +3229,10 @@
         <v>2017</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>37</v>
@@ -3255,7 +3246,7 @@
     </row>
     <row r="34" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2">
         <v>1999</v>
@@ -3319,7 +3310,7 @@
     </row>
     <row r="35" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2">
         <v>1999</v>
@@ -3334,10 +3325,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>44</v>
@@ -3366,7 +3357,7 @@
         <v>2018</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>77</v>
@@ -3383,7 +3374,7 @@
     </row>
     <row r="36" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B36" s="2">
         <v>1998</v>
@@ -3398,7 +3389,7 @@
         <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>32</v>
@@ -3433,7 +3424,7 @@
         <v>36</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="X36" s="2" t="s">
         <v>37</v>
@@ -3447,7 +3438,7 @@
     </row>
     <row r="37" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2">
         <v>1998</v>
@@ -3494,10 +3485,10 @@
         <v>2017</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>37</v>
@@ -3511,7 +3502,7 @@
     </row>
     <row r="38" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="2">
         <v>1999</v>
@@ -3526,7 +3517,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>43</v>
@@ -3538,7 +3529,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2" t="s">
@@ -3558,10 +3549,10 @@
         <v>2018</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>37</v>
@@ -3575,7 +3566,7 @@
     </row>
     <row r="39" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2">
         <v>1970</v>
@@ -3593,23 +3584,23 @@
         <v>42</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>37</v>
@@ -3618,7 +3609,7 @@
         <v>37</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>37</v>
@@ -3635,7 +3626,7 @@
     </row>
     <row r="40" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B40" s="2">
         <v>1998</v>
@@ -3653,7 +3644,7 @@
         <v>92</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>31</v>
@@ -3682,7 +3673,7 @@
         <v>2018</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>97</v>
@@ -3699,7 +3690,7 @@
     </row>
     <row r="41" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2">
         <v>1997</v>
@@ -3717,7 +3708,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>44</v>
@@ -3726,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="2" t="s">
@@ -3746,13 +3737,13 @@
         <v>2016</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>38</v>
@@ -3763,7 +3754,7 @@
     </row>
     <row r="42" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2">
         <v>1996</v>
@@ -3781,7 +3772,7 @@
         <v>42</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>75</v>
@@ -3813,7 +3804,7 @@
         <v>76</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>37</v>
@@ -3827,7 +3818,7 @@
     </row>
     <row r="43" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2">
         <v>1997</v>
@@ -3845,7 +3836,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>44</v>
@@ -3874,13 +3865,13 @@
         <v>2016</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>37</v>
@@ -3891,7 +3882,7 @@
     </row>
     <row r="44" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2">
         <v>1997</v>
@@ -3906,7 +3897,7 @@
         <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>43</v>
@@ -3941,10 +3932,10 @@
         <v>76</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>37</v>
@@ -3955,7 +3946,7 @@
     </row>
     <row r="45" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2">
         <v>1995</v>
@@ -3973,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>44</v>
@@ -4002,7 +3993,7 @@
         <v>2014</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>93</v>
@@ -4019,7 +4010,7 @@
     </row>
     <row r="46" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2">
         <v>1996</v>
@@ -4034,7 +4025,7 @@
         <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>43</v>
@@ -4069,7 +4060,7 @@
         <v>36</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>37</v>
@@ -4083,7 +4074,7 @@
     </row>
     <row r="47" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2">
         <v>1999</v>
@@ -4147,7 +4138,7 @@
     </row>
     <row r="48" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B48" s="2">
         <v>1996</v>
@@ -4194,10 +4185,10 @@
         <v>2014</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>37</v>
@@ -4211,7 +4202,7 @@
     </row>
     <row r="49" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2">
         <v>1996</v>
@@ -4226,7 +4217,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>43</v>
@@ -4258,10 +4249,10 @@
         <v>2015</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="X49" s="2" t="s">
         <v>37</v>
@@ -4275,7 +4266,7 @@
     </row>
     <row r="50" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2">
         <v>1997</v>
@@ -4322,7 +4313,7 @@
         <v>2016</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>97</v>
@@ -4339,7 +4330,7 @@
     </row>
     <row r="51" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B51" s="2">
         <v>1999</v>
@@ -4354,10 +4345,10 @@
         <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>44</v>
@@ -4367,7 +4358,7 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>34</v>
@@ -4386,7 +4377,7 @@
         <v>2018</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>77</v>
@@ -4403,7 +4394,7 @@
     </row>
     <row r="52" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2">
         <v>1999</v>
@@ -4421,7 +4412,7 @@
         <v>42</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>44</v>
@@ -4430,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="2" t="s">
@@ -4450,10 +4441,10 @@
         <v>2018</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="X52" s="2" t="s">
         <v>37</v>
@@ -4467,7 +4458,7 @@
     </row>
     <row r="53" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B53" s="2">
         <v>1995</v>
@@ -4485,7 +4476,7 @@
         <v>92</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>44</v>
@@ -4494,7 +4485,7 @@
         <v>45</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="2" t="s">
@@ -4514,10 +4505,10 @@
         <v>2014</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="X53" s="2" t="s">
         <v>37</v>
@@ -4531,7 +4522,7 @@
     </row>
     <row r="54" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B54" s="2">
         <v>1997</v>
@@ -4549,7 +4540,7 @@
         <v>92</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>75</v>
@@ -4559,7 +4550,7 @@
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>34</v>
@@ -4581,7 +4572,7 @@
         <v>36</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="X54" s="2" t="s">
         <v>37</v>
@@ -4595,7 +4586,7 @@
     </row>
     <row r="55" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2">
         <v>1997</v>
@@ -4623,7 +4614,7 @@
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>34</v>
@@ -4659,7 +4650,7 @@
     </row>
     <row r="56" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B56" s="2">
         <v>1998</v>
@@ -4677,7 +4668,7 @@
         <v>42</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>44</v>
@@ -4706,10 +4697,10 @@
         <v>2017</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="X56" s="2" t="s">
         <v>37</v>
@@ -4723,7 +4714,7 @@
     </row>
     <row r="57" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B57" s="2">
         <v>1998</v>
@@ -4751,7 +4742,7 @@
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>34</v>
@@ -4773,7 +4764,7 @@
         <v>36</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>37</v>
@@ -4787,7 +4778,7 @@
     </row>
     <row r="58" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B58" s="2">
         <v>1998</v>
@@ -4802,7 +4793,7 @@
         <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>80</v>
@@ -4815,7 +4806,7 @@
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>34</v>
@@ -4837,7 +4828,7 @@
         <v>94</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="X58" s="2" t="s">
         <v>37</v>
@@ -4851,7 +4842,7 @@
     </row>
     <row r="59" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B59" s="2">
         <v>1997</v>
@@ -4866,10 +4857,10 @@
         <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>44</v>
@@ -4878,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="2" t="s">
@@ -4898,10 +4889,10 @@
         <v>2016</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="X59" s="2" t="s">
         <v>37</v>
@@ -4915,7 +4906,7 @@
     </row>
     <row r="60" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B60" s="2">
         <v>1996</v>
@@ -4933,7 +4924,7 @@
         <v>92</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>75</v>
@@ -4965,7 +4956,7 @@
         <v>36</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X60" s="2" t="s">
         <v>37</v>
@@ -4979,7 +4970,7 @@
     </row>
     <row r="61" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B61" s="2">
         <v>1996</v>
@@ -4997,7 +4988,7 @@
         <v>92</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>75</v>
@@ -5007,7 +4998,7 @@
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>34</v>
@@ -5026,10 +5017,10 @@
         <v>2016</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="X61" s="2" t="s">
         <v>37</v>
@@ -5043,7 +5034,7 @@
     </row>
     <row r="62" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B62" s="2">
         <v>1997</v>
@@ -5058,10 +5049,10 @@
         <v>58</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>44</v>
@@ -5071,7 +5062,7 @@
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>34</v>
@@ -5107,7 +5098,7 @@
     </row>
     <row r="63" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2">
         <v>1997</v>
@@ -5122,7 +5113,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>43</v>
@@ -5171,7 +5162,7 @@
     </row>
     <row r="64" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2">
         <v>2000</v>
@@ -5186,10 +5177,10 @@
         <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>44</v>
@@ -5235,7 +5226,7 @@
     </row>
     <row r="65" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2">
         <v>1997</v>
@@ -5250,10 +5241,10 @@
         <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>44</v>
@@ -5263,7 +5254,7 @@
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>34</v>
@@ -5299,7 +5290,7 @@
     </row>
     <row r="66" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B66" s="2">
         <v>1999</v>
@@ -5317,17 +5308,17 @@
         <v>29</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>34</v>
@@ -5349,7 +5340,7 @@
         <v>61</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>37</v>
@@ -5363,7 +5354,7 @@
     </row>
     <row r="67" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B67" s="2">
         <v>1998</v>
@@ -5410,13 +5401,13 @@
         <v>2018</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W67" s="2" t="s">
         <v>97</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y67" s="2" t="s">
         <v>37</v>
@@ -5427,7 +5418,7 @@
     </row>
     <row r="68" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B68" s="2">
         <v>1997</v>
@@ -5442,7 +5433,7 @@
         <v>28</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>43</v>
@@ -5477,7 +5468,7 @@
         <v>36</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>37</v>
@@ -5491,7 +5482,7 @@
     </row>
     <row r="69" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B69" s="2">
         <v>1996</v>
@@ -5519,7 +5510,7 @@
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>34</v>
@@ -5538,10 +5529,10 @@
         <v>2015</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>37</v>
@@ -5555,7 +5546,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B70" s="4">
         <v>1996</v>
@@ -5573,7 +5564,7 @@
         <v>42</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>44</v>
@@ -5583,7 +5574,7 @@
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>34</v>
@@ -5605,7 +5596,7 @@
         <v>36</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="X70" s="3" t="s">
         <v>37</v>
@@ -5619,7 +5610,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B71" s="4">
         <v>1996</v>
@@ -5637,7 +5628,7 @@
         <v>42</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>44</v>
@@ -5646,7 +5637,7 @@
         <v>45</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3" t="s">
@@ -5669,7 +5660,7 @@
         <v>36</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="X71" s="3" t="s">
         <v>37</v>

--- a/AKINATOR UM (Responses).xlsx
+++ b/AKINATOR UM (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UM\Segundo Semestre 2018\Sistemas Distribuidos\Akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDDE4E-D036-41C0-B5AE-04786CC514C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7C361-0757-4023-A131-EE08F5B2BEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="250">
   <si>
     <t>Nombre completo</t>
   </si>
@@ -752,6 +752,24 @@
   </si>
   <si>
     <t xml:space="preserve">Colegio Seminario </t>
+  </si>
+  <si>
+    <t>Federico Castro</t>
+  </si>
+  <si>
+    <t>Buceo</t>
+  </si>
+  <si>
+    <t>Pinar 1</t>
+  </si>
+  <si>
+    <t>Juan José Regent</t>
+  </si>
+  <si>
+    <t>Punta Del Este</t>
+  </si>
+  <si>
+    <t>Boxeo</t>
   </si>
 </sst>
 </file>
@@ -1126,11 +1144,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5672,7 +5690,136 @@
         <v>67</v>
       </c>
     </row>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" s="4">
+        <v>2018</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1998</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U73" s="4">
+        <v>2017</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z73" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AKINATOR UM (Responses).xlsx
+++ b/AKINATOR UM (Responses).xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UM\Segundo Semestre 2018\Sistemas Distribuidos\Akinator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanPabloFajardoFont\Desktop\Facultad\2018\Semestre II\Sistemas\akin-git\akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7C361-0757-4023-A131-EE08F5B2BEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E276F34A-307F-48F5-A0F2-26E29A308CAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$Z$73</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1141,19 +1144,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="21.54296875" customWidth="1"/>
+    <col min="1" max="25" width="21.54296875" customWidth="1"/>
+    <col min="26" max="26" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>210</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>114</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>122</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>215</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>137</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>139</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>216</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>153</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3642,7 +3647,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>156</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>157</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>159</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>162</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>163</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>165</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>166</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>226</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>170</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>178</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>186</v>
       </c>
@@ -4922,7 +4927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>188</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>197</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>201</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>231</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>205</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>244</v>
       </c>
@@ -5819,6 +5824,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z73" xr:uid="{A47CE38F-9F42-402C-9691-2B89DEA47143}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Morocho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
